--- a/inputs compound generator/inputs/prtr_edars.xlsx
+++ b/inputs compound generator/inputs/prtr_edars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFCD6EA-0343-4227-85D6-EDFAC4A3C28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA938D9B-8673-46B8-A9C7-4C332C546293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{9AF6064F-A89D-48E2-ABD9-9D92932F4A95}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{9AF6064F-A89D-48E2-ABD9-9D92932F4A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1575,31 +1575,7 @@
     <t>t-octilfenol</t>
   </si>
   <si>
-    <t>Arsènic dissolt</t>
-  </si>
-  <si>
-    <t>Cadmi dissolt</t>
-  </si>
-  <si>
-    <t>Crom dissolt</t>
-  </si>
-  <si>
-    <t>Zinc dissolt</t>
-  </si>
-  <si>
-    <t>Mercuri dissolt</t>
-  </si>
-  <si>
-    <t>Niquel dissolt</t>
-  </si>
-  <si>
-    <t>Plom dissolt</t>
-  </si>
-  <si>
     <t>Cianurs totals</t>
-  </si>
-  <si>
-    <t>Fluorurs</t>
   </si>
   <si>
     <t>1.2-Dicloroetà</t>
@@ -1692,12 +1668,6 @@
     <t>Fòsfor total</t>
   </si>
   <si>
-    <t>Coure dissolt</t>
-  </si>
-  <si>
-    <t>Clorurs</t>
-  </si>
-  <si>
     <t>Hexaclorobenzè</t>
   </si>
   <si>
@@ -1708,6 +1678,36 @@
   </si>
   <si>
     <t>o-Xilè</t>
+  </si>
+  <si>
+    <t>Arsènic</t>
+  </si>
+  <si>
+    <t>Cadmi</t>
+  </si>
+  <si>
+    <t>Crom</t>
+  </si>
+  <si>
+    <t>Coure</t>
+  </si>
+  <si>
+    <t>Mercuri</t>
+  </si>
+  <si>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Plom</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Fluorurs totals</t>
+  </si>
+  <si>
+    <t>Clorurs totals</t>
   </si>
 </sst>
 </file>
@@ -2118,8 +2118,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:CH250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2170,106 +2170,106 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="W1" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>7</v>
@@ -2284,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AS1" s="7" t="s">
         <v>10</v>
@@ -2299,19 +2299,19 @@
         <v>501</v>
       </c>
       <c r="AW1" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AX1" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AY1" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AZ1" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="BA1" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="BB1" s="7" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>16</v>
       </c>
       <c r="BM1" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="BO1" s="7" t="s">
         <v>17</v>
@@ -2392,25 +2392,25 @@
         <v>512</v>
       </c>
       <c r="CB1" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="CC1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="CE1" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="CF1" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="CG1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="CH1" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:86">
